--- a/reports/air_import_employee_kpis/Gozde SAHIN.xlsx
+++ b/reports/air_import_employee_kpis/Gozde SAHIN.xlsx
@@ -513,25 +513,25 @@
         <v>47</v>
       </c>
       <c r="E2" t="n">
-        <v>42928.9</v>
+        <v>43087</v>
       </c>
       <c r="F2" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G2" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H2" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I2" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J2" t="n">
         <v>54</v>
       </c>
       <c r="K2" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L2" t="n">
         <v>2</v>
@@ -558,25 +558,25 @@
         <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>23817</v>
+        <v>23878</v>
       </c>
       <c r="F3" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G3" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H3" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I3" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J3" t="n">
         <v>54</v>
       </c>
       <c r="K3" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L3" t="n">
         <v>2</v>
@@ -603,25 +603,25 @@
         <v>54</v>
       </c>
       <c r="E4" t="n">
-        <v>27114.7</v>
+        <v>27115</v>
       </c>
       <c r="F4" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G4" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H4" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I4" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J4" t="n">
         <v>54</v>
       </c>
       <c r="K4" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L4" t="n">
         <v>2</v>
@@ -648,25 +648,25 @@
         <v>36</v>
       </c>
       <c r="E5" t="n">
-        <v>44265.84</v>
+        <v>44571</v>
       </c>
       <c r="F5" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G5" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H5" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I5" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J5" t="n">
         <v>54</v>
       </c>
       <c r="K5" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
@@ -693,25 +693,25 @@
         <v>54</v>
       </c>
       <c r="E6" t="n">
-        <v>40687.2</v>
+        <v>40762</v>
       </c>
       <c r="F6" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G6" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H6" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I6" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J6" t="n">
         <v>54</v>
       </c>
       <c r="K6" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L6" t="n">
         <v>2</v>
@@ -738,25 +738,25 @@
         <v>37</v>
       </c>
       <c r="E7" t="n">
-        <v>35560.6</v>
+        <v>35818</v>
       </c>
       <c r="F7" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G7" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H7" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I7" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J7" t="n">
         <v>54</v>
       </c>
       <c r="K7" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L7" t="n">
         <v>2</v>
@@ -783,25 +783,25 @@
         <v>36</v>
       </c>
       <c r="E8" t="n">
-        <v>32969.74</v>
+        <v>32978</v>
       </c>
       <c r="F8" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G8" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H8" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I8" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J8" t="n">
         <v>54</v>
       </c>
       <c r="K8" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -828,25 +828,25 @@
         <v>33</v>
       </c>
       <c r="E9" t="n">
-        <v>37525.37</v>
+        <v>37526</v>
       </c>
       <c r="F9" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G9" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H9" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I9" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J9" t="n">
         <v>54</v>
       </c>
       <c r="K9" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L9" t="n">
         <v>2</v>
@@ -873,25 +873,25 @@
         <v>35</v>
       </c>
       <c r="E10" t="n">
-        <v>12373.32</v>
+        <v>12500</v>
       </c>
       <c r="F10" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G10" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H10" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I10" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J10" t="n">
         <v>54</v>
       </c>
       <c r="K10" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L10" t="n">
         <v>2</v>
@@ -918,25 +918,25 @@
         <v>30</v>
       </c>
       <c r="E11" t="n">
-        <v>22466.5</v>
+        <v>27017</v>
       </c>
       <c r="F11" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G11" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H11" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I11" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J11" t="n">
         <v>54</v>
       </c>
       <c r="K11" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L11" t="n">
         <v>2</v>
@@ -963,25 +963,25 @@
         <v>49</v>
       </c>
       <c r="E12" t="n">
-        <v>20467.94</v>
+        <v>57977</v>
       </c>
       <c r="F12" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G12" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H12" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I12" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J12" t="n">
         <v>54</v>
       </c>
       <c r="K12" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L12" t="n">
         <v>2</v>
@@ -1008,25 +1008,25 @@
         <v>46</v>
       </c>
       <c r="E13" t="n">
-        <v>29277.72</v>
+        <v>29457</v>
       </c>
       <c r="F13" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G13" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H13" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I13" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J13" t="n">
         <v>54</v>
       </c>
       <c r="K13" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L13" t="n">
         <v>2</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>5748</v>
+        <v>5788</v>
       </c>
       <c r="F14" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G14" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H14" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I14" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J14" t="n">
         <v>54</v>
       </c>
       <c r="K14" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L14" t="n">
         <v>2</v>
@@ -1098,25 +1098,25 @@
         <v>17</v>
       </c>
       <c r="E15" t="n">
-        <v>17306.4</v>
+        <v>17692</v>
       </c>
       <c r="F15" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G15" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H15" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I15" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J15" t="n">
         <v>54</v>
       </c>
       <c r="K15" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L15" t="n">
         <v>2</v>
@@ -1146,22 +1146,22 @@
         <v>154</v>
       </c>
       <c r="F16" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G16" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H16" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I16" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J16" t="n">
         <v>54</v>
       </c>
       <c r="K16" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L16" t="n">
         <v>2</v>
@@ -1188,25 +1188,25 @@
         <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>3481</v>
+        <v>3494</v>
       </c>
       <c r="F17" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G17" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H17" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I17" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J17" t="n">
         <v>54</v>
       </c>
       <c r="K17" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L17" t="n">
         <v>2</v>
@@ -1233,25 +1233,25 @@
         <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>2643.6</v>
+        <v>2645</v>
       </c>
       <c r="F18" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G18" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H18" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I18" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J18" t="n">
         <v>54</v>
       </c>
       <c r="K18" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
@@ -1278,25 +1278,25 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>6273.5</v>
+        <v>6273</v>
       </c>
       <c r="F19" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G19" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H19" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I19" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J19" t="n">
         <v>54</v>
       </c>
       <c r="K19" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -1323,25 +1323,25 @@
         <v>47</v>
       </c>
       <c r="E20" t="n">
-        <v>19034.89</v>
+        <v>19190</v>
       </c>
       <c r="F20" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G20" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H20" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I20" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J20" t="n">
         <v>54</v>
       </c>
       <c r="K20" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L20" t="n">
         <v>2</v>
@@ -1368,25 +1368,25 @@
         <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>2393.86</v>
+        <v>3107</v>
       </c>
       <c r="F21" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G21" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H21" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I21" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J21" t="n">
         <v>54</v>
       </c>
       <c r="K21" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L21" t="n">
         <v>2</v>
@@ -1413,25 +1413,25 @@
         <v>25</v>
       </c>
       <c r="E22" t="n">
-        <v>5855.6</v>
+        <v>5875</v>
       </c>
       <c r="F22" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G22" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H22" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I22" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J22" t="n">
         <v>54</v>
       </c>
       <c r="K22" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L22" t="n">
         <v>2</v>
@@ -1458,25 +1458,25 @@
         <v>15</v>
       </c>
       <c r="E23" t="n">
-        <v>7825.4</v>
+        <v>7830</v>
       </c>
       <c r="F23" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G23" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H23" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I23" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J23" t="n">
         <v>54</v>
       </c>
       <c r="K23" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L23" t="n">
         <v>2</v>
@@ -1503,25 +1503,25 @@
         <v>27</v>
       </c>
       <c r="E24" t="n">
-        <v>7731.9</v>
+        <v>7733</v>
       </c>
       <c r="F24" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G24" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H24" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I24" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J24" t="n">
         <v>54</v>
       </c>
       <c r="K24" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L24" t="n">
         <v>2</v>
@@ -1548,25 +1548,25 @@
         <v>26</v>
       </c>
       <c r="E25" t="n">
-        <v>10750.52</v>
+        <v>11947</v>
       </c>
       <c r="F25" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G25" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H25" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I25" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J25" t="n">
         <v>54</v>
       </c>
       <c r="K25" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
@@ -1593,25 +1593,25 @@
         <v>36</v>
       </c>
       <c r="E26" t="n">
-        <v>24180.6</v>
+        <v>24508</v>
       </c>
       <c r="F26" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G26" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H26" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I26" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J26" t="n">
         <v>54</v>
       </c>
       <c r="K26" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L26" t="n">
         <v>2</v>
@@ -1638,25 +1638,25 @@
         <v>23</v>
       </c>
       <c r="E27" t="n">
-        <v>20959.5</v>
+        <v>20960</v>
       </c>
       <c r="F27" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G27" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H27" t="n">
         <v>28.57692307692308</v>
       </c>
       <c r="I27" t="n">
-        <v>19376.67692307692</v>
+        <v>21149.30769230769</v>
       </c>
       <c r="J27" t="n">
         <v>54</v>
       </c>
       <c r="K27" t="n">
-        <v>44265.84</v>
+        <v>57977</v>
       </c>
       <c r="L27" t="n">
         <v>2</v>

--- a/reports/air_import_employee_kpis/Gozde SAHIN.xlsx
+++ b/reports/air_import_employee_kpis/Gozde SAHIN.xlsx
@@ -516,10 +516,10 @@
         <v>43087</v>
       </c>
       <c r="F2" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G2" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H2" t="n">
         <v>28.57692307692308</v>
@@ -561,10 +561,10 @@
         <v>23878</v>
       </c>
       <c r="F3" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G3" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H3" t="n">
         <v>28.57692307692308</v>
@@ -606,10 +606,10 @@
         <v>27115</v>
       </c>
       <c r="F4" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G4" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H4" t="n">
         <v>28.57692307692308</v>
@@ -651,10 +651,10 @@
         <v>44571</v>
       </c>
       <c r="F5" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G5" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H5" t="n">
         <v>28.57692307692308</v>
@@ -696,10 +696,10 @@
         <v>40762</v>
       </c>
       <c r="F6" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G6" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H6" t="n">
         <v>28.57692307692308</v>
@@ -741,10 +741,10 @@
         <v>35818</v>
       </c>
       <c r="F7" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G7" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H7" t="n">
         <v>28.57692307692308</v>
@@ -786,10 +786,10 @@
         <v>32978</v>
       </c>
       <c r="F8" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G8" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H8" t="n">
         <v>28.57692307692308</v>
@@ -831,10 +831,10 @@
         <v>37526</v>
       </c>
       <c r="F9" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G9" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H9" t="n">
         <v>28.57692307692308</v>
@@ -876,10 +876,10 @@
         <v>12500</v>
       </c>
       <c r="F10" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G10" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H10" t="n">
         <v>28.57692307692308</v>
@@ -921,10 +921,10 @@
         <v>27017</v>
       </c>
       <c r="F11" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G11" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H11" t="n">
         <v>28.57692307692308</v>
@@ -966,10 +966,10 @@
         <v>57977</v>
       </c>
       <c r="F12" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G12" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H12" t="n">
         <v>28.57692307692308</v>
@@ -1011,10 +1011,10 @@
         <v>29457</v>
       </c>
       <c r="F13" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G13" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H13" t="n">
         <v>28.57692307692308</v>
@@ -1056,10 +1056,10 @@
         <v>5788</v>
       </c>
       <c r="F14" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G14" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H14" t="n">
         <v>28.57692307692308</v>
@@ -1101,10 +1101,10 @@
         <v>17692</v>
       </c>
       <c r="F15" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G15" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H15" t="n">
         <v>28.57692307692308</v>
@@ -1146,10 +1146,10 @@
         <v>154</v>
       </c>
       <c r="F16" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G16" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H16" t="n">
         <v>28.57692307692308</v>
@@ -1191,10 +1191,10 @@
         <v>3494</v>
       </c>
       <c r="F17" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G17" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H17" t="n">
         <v>28.57692307692308</v>
@@ -1236,10 +1236,10 @@
         <v>2645</v>
       </c>
       <c r="F18" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G18" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H18" t="n">
         <v>28.57692307692308</v>
@@ -1281,10 +1281,10 @@
         <v>6273</v>
       </c>
       <c r="F19" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G19" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H19" t="n">
         <v>28.57692307692308</v>
@@ -1326,10 +1326,10 @@
         <v>19190</v>
       </c>
       <c r="F20" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G20" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H20" t="n">
         <v>28.57692307692308</v>
@@ -1371,10 +1371,10 @@
         <v>3107</v>
       </c>
       <c r="F21" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G21" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H21" t="n">
         <v>28.57692307692308</v>
@@ -1416,10 +1416,10 @@
         <v>5875</v>
       </c>
       <c r="F22" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G22" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H22" t="n">
         <v>28.57692307692308</v>
@@ -1461,10 +1461,10 @@
         <v>7830</v>
       </c>
       <c r="F23" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G23" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H23" t="n">
         <v>28.57692307692308</v>
@@ -1506,10 +1506,10 @@
         <v>7733</v>
       </c>
       <c r="F24" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G24" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H24" t="n">
         <v>28.57692307692308</v>
@@ -1551,10 +1551,10 @@
         <v>11947</v>
       </c>
       <c r="F25" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G25" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H25" t="n">
         <v>28.57692307692308</v>
@@ -1596,10 +1596,10 @@
         <v>24508</v>
       </c>
       <c r="F26" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G26" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H26" t="n">
         <v>28.57692307692308</v>
@@ -1641,10 +1641,10 @@
         <v>20960</v>
       </c>
       <c r="F27" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G27" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H27" t="n">
         <v>28.57692307692308</v>
